--- a/resources/experiment 2/metrics/R2/upto time/Edema macular diabético (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Edema macular diabético (UPTO).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3319943219095315</v>
+        <v>0.3319943219095314</v>
       </c>
       <c r="C2" t="n">
         <v>0.3319943219095315</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8927443853393002</v>
+        <v>0.9852314767677984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.89274438396251</v>
+        <v>0.9847658646738863</v>
       </c>
       <c r="D3" t="n">
-        <v>0.89274438396251</v>
+        <v>0.8160157250112724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8786448254974567</v>
+        <v>0.9806874230962386</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8786299273523355</v>
+        <v>0.9798692055097598</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8786299273523355</v>
+        <v>0.8123113449298193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7008861882725578</v>
+        <v>0.8469489999053322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7008861882725578</v>
+        <v>0.8387462818560829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7008861882725578</v>
+        <v>0.6465802461876727</v>
       </c>
     </row>
   </sheetData>
